--- a/REPORT/Chart.xlsx
+++ b/REPORT/Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HCMUS\DSA\Project1\REPORT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F3AEF8-77E0-43BD-9210-5C27AF481A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A61311-607C-49F5-940E-C3A047092BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,29 +478,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="distributed" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="distributed" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,37 +513,26 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,7 +585,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Sorted Input </a:t>
             </a:r>
           </a:p>
@@ -1315,15 +1309,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Nearly</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> Sorted Input</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t> </a:t>
             </a:r>
           </a:p>
@@ -2047,11 +2041,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Reverse</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> Sorted Input</a:t>
             </a:r>
           </a:p>
@@ -2762,7 +2756,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2775,14 +2769,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Randomize</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> Input</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2799,7 +2793,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3470,6 +3464,4474 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Sorted</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Input</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$7:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>5063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D1D-4481-9997-82DFC4A79DE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$7:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D1D-4481-9997-82DFC4A79DE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>1127</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>6118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1D1D-4481-9997-82DFC4A79DE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shaker Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$7:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1D1D-4481-9997-82DFC4A79DE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$7:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1D1D-4481-9997-82DFC4A79DE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$7:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1D1D-4481-9997-82DFC4A79DE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$7:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1D1D-4481-9997-82DFC4A79DE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$7:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1D1D-4481-9997-82DFC4A79DE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counting Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$7:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1D1D-4481-9997-82DFC4A79DE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radix Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$7:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1D1D-4481-9997-82DFC4A79DE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flash Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$7:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-1D1D-4481-9997-82DFC4A79DE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2027396736"/>
+        <c:axId val="2027393856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2027396736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2027393856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2027393856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2027396736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Nearly</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Sorted Input</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$14:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>5135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E5BD-4948-AD58-9C8C8AFFE2CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E5BD-4948-AD58-9C8C8AFFE2CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$14:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>1755</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>8476</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E5BD-4948-AD58-9C8C8AFFE2CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shaker Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$14:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E5BD-4948-AD58-9C8C8AFFE2CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$14:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E5BD-4948-AD58-9C8C8AFFE2CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$14:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E5BD-4948-AD58-9C8C8AFFE2CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$14:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E5BD-4948-AD58-9C8C8AFFE2CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$14:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E5BD-4948-AD58-9C8C8AFFE2CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counting Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$14:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E5BD-4948-AD58-9C8C8AFFE2CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radix Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$14:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E5BD-4948-AD58-9C8C8AFFE2CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flash Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$14:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E5BD-4948-AD58-9C8C8AFFE2CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2104083520"/>
+        <c:axId val="2104084000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2104083520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2104084000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2104084000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2104083520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Reverse</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Sorted Input</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>1085</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>5667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC93-4890-895E-4A915B9FB7B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$21:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>1496</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>10356</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DC93-4890-895E-4A915B9FB7B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$21:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DC93-4890-895E-4A915B9FB7B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shaker Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$21:$G$24</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1543</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28674</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DC93-4890-895E-4A915B9FB7B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$21:$H$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>9935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DC93-4890-895E-4A915B9FB7B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$21:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DC93-4890-895E-4A915B9FB7B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$21:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DC93-4890-895E-4A915B9FB7B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$21:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-DC93-4890-895E-4A915B9FB7B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counting Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$21:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-DC93-4890-895E-4A915B9FB7B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radix Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$21:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-DC93-4890-895E-4A915B9FB7B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flash Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$21:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>1489</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>8051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-DC93-4890-895E-4A915B9FB7B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2048513248"/>
+        <c:axId val="2048514688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2048513248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2048514688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2048514688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2048513248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Randomized</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Input</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$28:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>5120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1693-4B95-A90C-FD1D3809E156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$28:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>3371</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1693-4B95-A90C-FD1D3809E156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bubble Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$28:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1888</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32589</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1693-4B95-A90C-FD1D3809E156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shaker Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$28:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5242</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1693-4B95-A90C-FD1D3809E156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$28:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1693-4B95-A90C-FD1D3809E156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$28:$I$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1693-4B95-A90C-FD1D3809E156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$28:$J$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1693-4B95-A90C-FD1D3809E156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$28:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1693-4B95-A90C-FD1D3809E156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Counting Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$28:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1693-4B95-A90C-FD1D3809E156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radix Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$28:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-1693-4B95-A90C-FD1D3809E156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flash Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$28:$N$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>3029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-1693-4B95-A90C-FD1D3809E156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2054653584"/>
+        <c:axId val="2054653104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2054653584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054653104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2054653104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2054653584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3630,6 +8092,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5289,6 +9911,2070 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5783,6 +12469,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>576459</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>345610</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9921</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D2488D-F104-D8C1-EE3F-6A433A699F88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>596303</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>225823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>398526</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9922</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC4B1FA-4168-AEB3-DB8A-3186037DBC74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>117928</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>538450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161441</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9190711C-1E91-06BF-8936-229BA23ECFA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>542478</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>349524</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177585</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73FECDE8-22F9-054D-7951-5171310D4846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6056,8 +12886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="29" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BO69" sqref="BO69"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="59" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="BJ33" sqref="BJ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6070,287 +12900,287 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="19"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="5">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="4">
         <v>10000</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N7" s="21" t="s">
+      <c r="N7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="5">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="4">
         <v>30000</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="L8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="5">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="4">
         <v>50000</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="10">
         <v>1040</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="10">
         <v>1127</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="R9" s="20"/>
+      <c r="P9" s="8"/>
+      <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="5">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="4">
         <v>100000</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="10">
         <v>5063</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="10">
         <v>6118</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="R10" s="20"/>
+      <c r="P10" s="8"/>
+      <c r="R10" s="8"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="11"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="15"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
     </row>
     <row r="13" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2" t="s">
         <v>0</v>
       </c>
@@ -6386,210 +13216,210 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="5">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="4">
         <v>10000</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="N14" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="5">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="4">
         <v>30000</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="10">
         <v>1527</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="M15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="N15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="S15" s="20"/>
+      <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="5">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="4">
         <v>50000</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="10">
         <v>1026</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="10">
         <v>1755</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="10">
         <v>1841</v>
       </c>
-      <c r="H16" s="23" t="s">
+      <c r="H16" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="23" t="s">
+      <c r="N16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
+      <c r="P16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="5">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="4">
         <v>100000</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="10">
         <v>5135</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="10">
         <v>8476</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="10">
         <v>1839</v>
       </c>
-      <c r="H17" s="23" t="s">
+      <c r="H17" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="23" t="s">
+      <c r="M17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="23" t="s">
+      <c r="N17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="P17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
+      <c r="P17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="6" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="11"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="15"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="20"/>
     </row>
     <row r="20" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="2" t="s">
         <v>0</v>
       </c>
@@ -6625,217 +13455,217 @@
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="5">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="4">
         <v>10000</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="23" t="s">
+      <c r="H21" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="23" t="s">
+      <c r="J21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="23" t="s">
+      <c r="M21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="N21" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="5">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="4">
         <v>30000</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="10">
         <v>1525</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="10">
         <v>1543</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I22" s="23" t="s">
+      <c r="I22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="23" t="s">
+      <c r="N22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="5">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="4">
         <v>50000</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="10">
         <v>1085</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="10">
         <v>1496</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="10">
         <v>5257</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="10">
         <v>5330</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="10">
         <v>1792</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="M23" s="23" t="s">
+      <c r="M23" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="10">
         <v>1489</v>
       </c>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="Z23" s="20"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="Z23" s="8"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="5">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="4">
         <v>100000</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="10">
         <v>5667</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="10">
         <v>10356</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="10">
         <v>28746</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="10">
         <v>28674</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="10">
         <v>9935</v>
       </c>
-      <c r="I24" s="23" t="s">
+      <c r="I24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="J24" s="23" t="s">
+      <c r="J24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="23" t="s">
+      <c r="M24" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="10">
         <v>8051</v>
       </c>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="Z24" s="20"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="Z24" s="8"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="6" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="11"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="15"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="20"/>
     </row>
     <row r="27" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="2" t="s">
         <v>0</v>
       </c>
@@ -6871,259 +13701,259 @@
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="5">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="4">
         <v>10000</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="23" t="s">
+      <c r="M28" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="N28" s="23" t="s">
+      <c r="N28" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="5">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="4">
         <v>30000</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="10">
         <v>1888</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="10">
         <v>1562</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="23" t="s">
+      <c r="M29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N29" s="23" t="s">
+      <c r="N29" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="5">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="4">
         <v>50000</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="10">
         <v>1075</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="10">
         <v>6682</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="10">
         <v>5242</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="L30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M30" s="23" t="s">
+      <c r="M30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="N30" s="23" t="s">
+      <c r="N30" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="P30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
+      <c r="P30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="5">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="4">
         <v>100000</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="10">
         <v>5120</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="10">
         <v>3371</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="10">
         <v>32589</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="10">
         <v>29011</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="K31" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L31" s="23" t="s">
+      <c r="L31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="23" t="s">
+      <c r="M31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N31" s="24">
+      <c r="N31" s="10">
         <v>3029</v>
       </c>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="20"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="11"/>
+      <c r="C40" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="11"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="14"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="14"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="17"/>
     </row>
     <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="G42" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="L42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="M42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N42" s="10" t="s">
+      <c r="N42" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="5">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="4">
         <v>10000</v>
       </c>
       <c r="D43" s="1">
@@ -7161,9 +13991,9 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="5">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="4">
         <v>30000</v>
       </c>
       <c r="D44" s="1">
@@ -7201,9 +14031,9 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="5">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="4">
         <v>50000</v>
       </c>
       <c r="D45" s="1">
@@ -7241,9 +14071,9 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="5">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="4">
         <v>100000</v>
       </c>
       <c r="D46" s="1">
@@ -7281,43 +14111,43 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="6" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="11"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="14"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="15"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="20"/>
     </row>
     <row r="49" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="4"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="2" t="s">
         <v>0</v>
       </c>
@@ -7353,9 +14183,9 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="5">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="4">
         <v>10000</v>
       </c>
       <c r="D50" s="1">
@@ -7393,9 +14223,9 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="5">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="4">
         <v>30000</v>
       </c>
       <c r="D51" s="1">
@@ -7433,9 +14263,9 @@
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="5">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="4">
         <v>50000</v>
       </c>
       <c r="D52" s="1">
@@ -7473,9 +14303,9 @@
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="5">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="4">
         <v>100000</v>
       </c>
       <c r="D53" s="1">
@@ -7513,43 +14343,43 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="6" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="11"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="14"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="15"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="20"/>
     </row>
     <row r="56" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="4"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="3"/>
       <c r="D56" s="2" t="s">
         <v>0</v>
       </c>
@@ -7585,9 +14415,9 @@
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="5">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="4">
         <v>10000</v>
       </c>
       <c r="D57" s="1">
@@ -7625,9 +14455,9 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="5">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="4">
         <v>30000</v>
       </c>
       <c r="D58" s="1">
@@ -7665,9 +14495,9 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="5">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="4">
         <v>50000</v>
       </c>
       <c r="D59" s="1">
@@ -7705,9 +14535,9 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="5">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="4">
         <v>100000</v>
       </c>
       <c r="D60" s="1">
@@ -7745,43 +14575,43 @@
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="6" t="s">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="11"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="14"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="15"/>
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="20"/>
     </row>
     <row r="63" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="4"/>
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="3"/>
       <c r="D63" s="2" t="s">
         <v>0</v>
       </c>
@@ -7817,9 +14647,9 @@
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="5">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="4">
         <v>10000</v>
       </c>
       <c r="D64" s="1">
@@ -7857,9 +14687,9 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="5">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="4">
         <v>30000</v>
       </c>
       <c r="D65" s="1">
@@ -7897,9 +14727,9 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="5">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="4">
         <v>50000</v>
       </c>
       <c r="D66" s="1">
@@ -7937,9 +14767,9 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="5">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="4">
         <v>100000</v>
       </c>
       <c r="D67" s="1">
@@ -7977,21 +14807,21 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="16"/>
+      <c r="A68" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A4:B31"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="C4:N5"/>
+    <mergeCell ref="C11:N12"/>
+    <mergeCell ref="C18:N19"/>
+    <mergeCell ref="C25:N26"/>
     <mergeCell ref="A40:B67"/>
     <mergeCell ref="C40:N41"/>
     <mergeCell ref="C47:N48"/>
     <mergeCell ref="C54:N55"/>
     <mergeCell ref="C61:N62"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="C4:N5"/>
-    <mergeCell ref="C11:N12"/>
-    <mergeCell ref="C18:N19"/>
-    <mergeCell ref="C25:N26"/>
-    <mergeCell ref="A4:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
